--- a/Day 1/Unicorns.xlsx
+++ b/Day 1/Unicorns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\np-uipath-starter\Day 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20DE432-7309-49D0-BD74-9077D19C9618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC706C1A-3958-462F-8D20-9DF664DED929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" xr2:uid="{33CE5874-ABF6-4187-8FF3-D5A53140FB68}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33CE5874-ABF6-4187-8FF3-D5A53140FB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -49,10 +49,13 @@
     <t>Vladimir</t>
   </si>
   <si>
-    <t>Sparkle Raindrop-Mist</t>
-  </si>
-  <si>
-    <t>Sprinkle Moon-Clover</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -413,36 +416,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61049C6A-853A-4A35-95C5-D6289DF8B487}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
